--- a/WebApi_project/__home/WebApi_project_構成.xlsx
+++ b/WebApi_project/__home/WebApi_project_構成.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naka\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hr-nakamura\WebApi_project\WebApi_project\__home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB659470-D6A0-4D7E-A5FA-E512FB2D52EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63674E92-CEA1-4B20-B885-18326F7BD350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1800" windowWidth="19530" windowHeight="11385" xr2:uid="{AE14F6C5-6F15-4321-B551-746E2E191C41}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{AE14F6C5-6F15-4321-B551-746E2E191C41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>__home</t>
     <phoneticPr fontId="1"/>
@@ -254,6 +255,36 @@
       <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上目標</t>
+  </si>
+  <si>
+    <t>/Project/売上予測/売上目標_部門.asp</t>
+  </si>
+  <si>
+    <t>売上実績+予測</t>
+  </si>
+  <si>
+    <t>売上実績+予測（分類別）</t>
+  </si>
+  <si>
+    <t>売上実績+予測（新規別）</t>
+  </si>
+  <si>
+    <t>売上実績+予測（新規別2）</t>
+  </si>
+  <si>
+    <t>/Project/売上予測/売上予実_部門.asp</t>
+  </si>
+  <si>
+    <t>/Project/売上予測/売上予実_分類.asp"</t>
+  </si>
+  <si>
+    <t>/Project/売上予測/売上予実_新規.asp</t>
+  </si>
+  <si>
+    <t>/Project/売上予測/売上予実_新規2.asp</t>
   </si>
 </sst>
 </file>
@@ -619,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FED9C8-68E8-495E-9AA5-0CD80AD7D999}">
   <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -853,4 +884,95 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E396BE3-85AB-489A-84E9-676BCF7C6FC7}">
+  <dimension ref="D4:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>